--- a/Dashboard/excelfiles/professors_promotion_type.xlsx
+++ b/Dashboard/excelfiles/professors_promotion_type.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,8 +464,14 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1682</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -476,8 +482,14 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -486,10 +498,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -500,8 +518,14 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -512,8 +536,14 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -524,8 +554,14 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1843</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -534,10 +570,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1847</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -546,10 +588,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -560,8 +608,14 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1852</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -572,20 +626,32 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Promotie/Promotie</t>
+          <t>Promotie</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -596,8 +662,14 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -608,20 +680,32 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Promotie</t>
+          <t>Erepromotie</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1898</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -632,8 +716,14 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -644,20 +734,32 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Promotie/Promotie</t>
+          <t>Promotie</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -668,8 +770,14 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -680,8 +788,14 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -692,104 +806,14 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Promotie</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Promotie</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Erepromotie</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Promotie</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Promotie</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Promotie</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Promotie</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Promotie</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dashboard/excelfiles/professors_promotion_type.xlsx
+++ b/Dashboard/excelfiles/professors_promotion_type.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,10 +808,640 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>13</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>17</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>15</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>17</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Promotoe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>11</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>2001</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D46" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>21</v>
       </c>
     </row>
